--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.2587</v>
+        <v>16.18989999999999</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.62330000000001</v>
+        <v>-12.6809</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.76210000000001</v>
+        <v>-21.73770000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.0459</v>
+        <v>-10.9187</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.88319999999999</v>
+        <v>-12.4282</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.359</v>
+        <v>16.471</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.29700000000001</v>
+        <v>-22.14340000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.57939999999998</v>
+        <v>-21.68039999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.6134</v>
+        <v>-12.5658</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.89219999999999</v>
+        <v>-21.8764</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.98579999999999</v>
+        <v>-12.7798</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.08990000000001</v>
+        <v>-11.10680000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.29160000000002</v>
+        <v>17.29260000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.41169999999999</v>
+        <v>-21.60459999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.6949</v>
+        <v>16.7474</v>
       </c>
     </row>
     <row r="36">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.8908</v>
+        <v>-13.1597</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,13 +1080,13 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.33439999999999</v>
+        <v>-12.6449</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.4032</v>
+        <v>16.60289999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.22510000000002</v>
+        <v>17.26930000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.66200000000001</v>
+        <v>16.6899</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.41849999999999</v>
+        <v>16.43249999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.7681</v>
+        <v>-11.6022</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.39250000000001</v>
+        <v>17.21620000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.3257</v>
+        <v>-11.3044</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.0208</v>
+        <v>-13.58559999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.53230000000001</v>
+        <v>16.44090000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.73040000000002</v>
+        <v>18.47820000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.7446</v>
+        <v>-21.711</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.1863</v>
+        <v>-11.0936</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.83709999999999</v>
+        <v>-11.8943</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.46620000000002</v>
+        <v>17.3769</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.99629999999999</v>
+        <v>-20.1432</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.19559999999998</v>
+        <v>-20.34579999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.4829</v>
+        <v>-12.5503</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.93669999999999</v>
+        <v>-21.9006</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.02249999999999</v>
+        <v>-22.0501</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.8937</v>
+        <v>-12.91919999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.471</v>
+        <v>16.4405</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.12459999999999</v>
+        <v>-21.06579999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.46550000000001</v>
+        <v>16.5032</v>
       </c>
     </row>
     <row r="100">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.27950000000001</v>
+        <v>-13.3717</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
